--- a/工厂订单/订单2018/郁俊浩.xlsx
+++ b/工厂订单/订单2018/郁俊浩.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/工厂订单/订单2018/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="郁俊浩" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,20 @@
     <sheet name="Mack_bobo" sheetId="4" r:id="rId4"/>
     <sheet name="Bobo加工" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,14 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Togo护照本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包工料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌车钥匙包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +884,50 @@
   </si>
   <si>
     <t>调整后价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo一片式卡片包</t>
+    <rPh sb="4" eb="5">
+      <t>yi'pian'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ka'pian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包工料</t>
+    <rPh sb="0" eb="1">
+      <t>bao'gong'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo欧版短夹</t>
+    <rPh sb="4" eb="5">
+      <t>ou'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一片式卡片包</t>
+    <rPh sb="0" eb="1">
+      <t>yi'pian'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ka'pian'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料</t>
+    <rPh sb="0" eb="1">
+      <t>lai'l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,13 +939,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -904,14 +953,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,7 +968,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -927,7 +976,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -935,7 +984,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,7 +992,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1057,12 +1106,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1092,12 +1141,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1303,17 +1352,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="38.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>89</v>
@@ -1865,7 +1914,7 @@
         <v>460</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -1882,7 +1931,7 @@
         <v>550</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,19 +2068,19 @@
         <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2">
         <v>280</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,16 +2088,16 @@
         <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2">
         <v>180</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2">
         <v>1000</v>
@@ -2070,16 +2119,16 @@
         <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2">
         <v>3500</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,10 +2136,10 @@
         <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="2">
         <v>180</v>
@@ -2101,16 +2150,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2">
         <v>1500</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,10 +2167,10 @@
         <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2">
         <v>2200</v>
@@ -2132,10 +2181,10 @@
         <v>30</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" s="2">
         <v>3200</v>
@@ -2146,10 +2195,10 @@
         <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2">
         <v>4200</v>
@@ -2160,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
@@ -2174,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D60" s="2">
         <v>2000</v>
@@ -2191,10 +2240,10 @@
         <v>30</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D61" s="2">
         <v>2200</v>
@@ -2208,7 +2257,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -2222,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="2">
         <v>13500</v>
@@ -2242,10 +2291,10 @@
         <v>30</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="2">
         <v>1500</v>
@@ -2259,10 +2308,10 @@
         <v>30</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="2">
         <v>13500</v>
@@ -2270,44 +2319,44 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="2">
         <v>5500</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="2">
         <v>980</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="2">
         <v>5800</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,13 +2472,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="38.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2658,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -2620,10 +2669,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2">
         <v>150</v>
@@ -2631,10 +2680,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2">
         <v>260</v>
@@ -2642,10 +2691,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2">
         <v>1500</v>
@@ -2653,10 +2702,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2">
         <v>1800</v>
@@ -2664,7 +2713,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2684,16 +2733,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="38.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,19 +2933,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -2907,7 +2956,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -2918,7 +2967,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2929,7 +2978,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2940,7 +2989,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -2951,118 +3000,123 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8">
+        <v>1350</v>
+      </c>
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8">
-        <v>2500</v>
-      </c>
-      <c r="D8">
-        <v>2800</v>
-      </c>
-      <c r="E8">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9">
-        <v>1350</v>
+        <v>2800</v>
       </c>
       <c r="D9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>2800</v>
+        <v>680</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C11">
-        <v>680</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
       <c r="C12">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3074,81 +3128,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
